--- a/src/main/java/com/guru99/demo/TestData/TestData.xlsx
+++ b/src/main/java/com/guru99/demo/TestData/TestData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alkesh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alkesh\workspace1\Guru99Bank1\src\main\java\com\guru99\demo\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>Customer Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>alkesh@gmail.com</t>
-  </si>
-  <si>
     <t>alkesh@1234</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>Lower Parel West</t>
   </si>
   <si>
-    <t>ashwini@gmail.com</t>
-  </si>
-  <si>
     <t>ashwini@1234</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>Thane</t>
   </si>
   <si>
-    <t>sonali@gmail.com</t>
-  </si>
-  <si>
     <t>sonali@1234</t>
   </si>
   <si>
@@ -116,9 +107,6 @@
     <t>Navi Mumbai</t>
   </si>
   <si>
-    <t>mohini@gmail.com</t>
-  </si>
-  <si>
     <t>mohini@1234</t>
   </si>
   <si>
@@ -132,6 +120,21 @@
   </si>
   <si>
     <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>9702741255</t>
+  </si>
+  <si>
+    <t>alkesh@mail.com</t>
+  </si>
+  <si>
+    <t>ashwini@mail.com</t>
+  </si>
+  <si>
+    <t>sonali@mail.com</t>
+  </si>
+  <si>
+    <t>mohini@mail.com</t>
   </si>
 </sst>
 </file>
@@ -514,25 +517,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="12.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="7.85546875" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" style="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.140625" style="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="1"/>
+    <col min="13" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -575,7 +580,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>12</v>
@@ -589,28 +594,28 @@
       <c r="G2" s="9">
         <v>400065</v>
       </c>
-      <c r="H2" s="9">
-        <v>9702741255</v>
+      <c r="H2" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
@@ -625,27 +630,27 @@
         <v>9848421531</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>14</v>
@@ -657,27 +662,27 @@
         <v>9895454545</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>14</v>
@@ -689,10 +694,10 @@
         <v>9184526564</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
